--- a/src/test/resources/pistesyotto/6/muplattu.xlsx
+++ b/src/test/resources/pistesyotto/6/muplattu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Pistesyöttö" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3226,10 +3226,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3257,10 +3280,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -3273,15 +3306,34 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3614,7 +3666,7 @@
   <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3628,56 +3680,60 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" hidden="1">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="7"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
@@ -11382,4549 +11438,23 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <dataValidations count="1396">
-    <dataValidation type="list" allowBlank="1" sqref="D8">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="D8:D356">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" sqref="E8:E356 G8:G356">
       <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F8">
+    <dataValidation type="decimal" allowBlank="1" sqref="F8:F356">
       <formula1>0</formula1>
       <formula2>70</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G8">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D9">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E9">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F9">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G9">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D10">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E10">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F10">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G10">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D11">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E11">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F11">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G11">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D12">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E12">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F12">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G12">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D13">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E13">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F13">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G13">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D14">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E14">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F14">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G14">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D15">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E15">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F15">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G15">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D16">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E16">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F16">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G16">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D17">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E17">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F17">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G17">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D18">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E18">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F18">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G18">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D19">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E19">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F19">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G19">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D20">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E20">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F20">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G20">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D21">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E21">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F21">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G21">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D22">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E22">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F22">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G22">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D23">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E23">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F23">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G23">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D24">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E24">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F24">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G24">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D25">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E25">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F25">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G25">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D26">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E26">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F26">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G26">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D27">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E27">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F27">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G27">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D28">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E28">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F28">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G28">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D29">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E29">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F29">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G29">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D30">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E30">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F30">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G30">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D31">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E31">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F31">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G31">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D32">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E32">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F32">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G32">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D33">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E33">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F33">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G33">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D34">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E34">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F34">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G34">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D35">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E35">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F35">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G35">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D36">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E36">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F36">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G36">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D37">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E37">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F37">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G37">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D38">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E38">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F38">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G38">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D39">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E39">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F39">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G39">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D40">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E40">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F40">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G40">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D41">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E41">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F41">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G41">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D42">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E42">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F42">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G42">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D43">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E43">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F43">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G43">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D44">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E44">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F44">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G44">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D45">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E45">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F45">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G45">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D46">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E46">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F46">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G46">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D47">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E47">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F47">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G47">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D48">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E48">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F48">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G48">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D49">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E49">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F49">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G49">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D50">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E50">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F50">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G50">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D51">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E51">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F51">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G51">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D52">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E52">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F52">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G52">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D53">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E53">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F53">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G53">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D54">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E54">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F54">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G54">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D55">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E55">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F55">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G55">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D56">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E56">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F56">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G56">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D57">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E57">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F57">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G57">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D58">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E58">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F58">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G58">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D59">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E59">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F59">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G59">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D60">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E60">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F60">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G60">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D61">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E61">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F61">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G61">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D62">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E62">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F62">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G62">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D63">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E63">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F63">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G63">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D64">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E64">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F64">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G64">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D65">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E65">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F65">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G65">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D66">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E66">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F66">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G66">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D67">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E67">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F67">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G67">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D68">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E68">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F68">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G68">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D69">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E69">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F69">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G69">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D70">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E70">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F70">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G70">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D71">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E71">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F71">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G71">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D72">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E72">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F72">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G72">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D73">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E73">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F73">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G73">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D74">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E74">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F74">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G74">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D75">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E75">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F75">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G75">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D76">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E76">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F76">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G76">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D77">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E77">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F77">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G77">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D78">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E78">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F78">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G78">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D79">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E79">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F79">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G79">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D80">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E80">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F80">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G80">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D81">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E81">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F81">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G81">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D82">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E82">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F82">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G82">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D83">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E83">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F83">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G83">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D84">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E84">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F84">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G84">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D85">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E85">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F85">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G85">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D86">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E86">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F86">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G86">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D87">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E87">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F87">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G87">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D88">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E88">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F88">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G88">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D89">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E89">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F89">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G89">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D90">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E90">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F90">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G90">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D91">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E91">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F91">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G91">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D92">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E92">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F92">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G92">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D93">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E93">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F93">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G93">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D94">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E94">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F94">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G94">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D95">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E95">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F95">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G95">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D96">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E96">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F96">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G96">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D97">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E97">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F97">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G97">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D98">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E98">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F98">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G98">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D99">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E99">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F99">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G99">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D100">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E100">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F100">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G100">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D101">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E101">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F101">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G101">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D102">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E102">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F102">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G102">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D103">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E103">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F103">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G103">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D104">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E104">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F104">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G104">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D105">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E105">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F105">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G105">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D106">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E106">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F106">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G106">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D107">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E107">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F107">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G107">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D108">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E108">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F108">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G108">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D109">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E109">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F109">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G109">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D110">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E110">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F110">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G110">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D111">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E111">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F111">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G111">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D112">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E112">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F112">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G112">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D113">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E113">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F113">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G113">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D114">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E114">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F114">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G114">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D115">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E115">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F115">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G115">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D116">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E116">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F116">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G116">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D117">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E117">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F117">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G117">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D118">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E118">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F118">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G118">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D119">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E119">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F119">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G119">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D120">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E120">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F120">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G120">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D121">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E121">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F121">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G121">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D122">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E122">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F122">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G122">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D123">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E123">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F123">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G123">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D124">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E124">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F124">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G124">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D125">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E125">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F125">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G125">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D126">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E126">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F126">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G126">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D127">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E127">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F127">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G127">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D128">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E128">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F128">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G128">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D129">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E129">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F129">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G129">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D130">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E130">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F130">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G130">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D131">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E131">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F131">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G131">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D132">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E132">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F132">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G132">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D133">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E133">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F133">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G133">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D134">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E134">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F134">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G134">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D135">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E135">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F135">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G135">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D136">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E136">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F136">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G136">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D137">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E137">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F137">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G137">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D138">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E138">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F138">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G138">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D139">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E139">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F139">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G139">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D140">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E140">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F140">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G140">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D141">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E141">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F141">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G141">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D142">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E142">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F142">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G142">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D143">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E143">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F143">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G143">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D144">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E144">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F144">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G144">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D145">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E145">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F145">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G145">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D146">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E146">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F146">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G146">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D147">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E147">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F147">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G147">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D148">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E148">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F148">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G148">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D149">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E149">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F149">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G149">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D150">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E150">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F150">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G150">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D151">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E151">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F151">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G151">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D152">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E152">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F152">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G152">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D153">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E153">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F153">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G153">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D154">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E154">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F154">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G154">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D155">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E155">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F155">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G155">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D156">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E156">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F156">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G156">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D157">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E157">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F157">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G157">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D158">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E158">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F158">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G158">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D159">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E159">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F159">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G159">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D160">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E160">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F160">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G160">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D161">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E161">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F161">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G161">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D162">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E162">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F162">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G162">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D163">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E163">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F163">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G163">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D164">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E164">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F164">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G164">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D165">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E165">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F165">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G165">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D166">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E166">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F166">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G166">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D167">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E167">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F167">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G167">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D168">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E168">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F168">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G168">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D169">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E169">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F169">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G169">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D170">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E170">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F170">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G170">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D171">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E171">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F171">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G171">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D172">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E172">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F172">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G172">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D173">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E173">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F173">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G173">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D174">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E174">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F174">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G174">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D175">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E175">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F175">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G175">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D176">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E176">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F176">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G176">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D177">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E177">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F177">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G177">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D178">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E178">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F178">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G178">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D179">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E179">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F179">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G179">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D180">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E180">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F180">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G180">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D181">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E181">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F181">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G181">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D182">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E182">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F182">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G182">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D183">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E183">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F183">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G183">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D184">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E184">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F184">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G184">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D185">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E185">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F185">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G185">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D186">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E186">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F186">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G186">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D187">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E187">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F187">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G187">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D188">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E188">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F188">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G188">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D189">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E189">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F189">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G189">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D190">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E190">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F190">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G190">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D191">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E191">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F191">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G191">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D192">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E192">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F192">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G192">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D193">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E193">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F193">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G193">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D194">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E194">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F194">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G194">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D195">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E195">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F195">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G195">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D196">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E196">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F196">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G196">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D197">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E197">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F197">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G197">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D198">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E198">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F198">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G198">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D199">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E199">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F199">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G199">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D200">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E200">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F200">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G200">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D201">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E201">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F201">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G201">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D202">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E202">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F202">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G202">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D203">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E203">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F203">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G203">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D204">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E204">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F204">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G204">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D205">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E205">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F205">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G205">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D206">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E206">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F206">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G206">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D207">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E207">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F207">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G207">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D208">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E208">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F208">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G208">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D209">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E209">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F209">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G209">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D210">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E210">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F210">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G210">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D211">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E211">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F211">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G211">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D212">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E212">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F212">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G212">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D213">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E213">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F213">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G213">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D214">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E214">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F214">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G214">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D215">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E215">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F215">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G215">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D216">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E216">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F216">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G216">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D217">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E217">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F217">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G217">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D218">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E218">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F218">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G218">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D219">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E219">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F219">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G219">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D220">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E220">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F220">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G220">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D221">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E221">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F221">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G221">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D222">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E222">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F222">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G222">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D223">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E223">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F223">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G223">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D224">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E224">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F224">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G224">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D225">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E225">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F225">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G225">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D226">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E226">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F226">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G226">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D227">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E227">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F227">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G227">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D228">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E228">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F228">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G228">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D229">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E229">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F229">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G229">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D230">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E230">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F230">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G230">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D231">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E231">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F231">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G231">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D232">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E232">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F232">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G232">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D233">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E233">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F233">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G233">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D234">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E234">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F234">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G234">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D235">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E235">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F235">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G235">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D236">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E236">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F236">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G236">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D237">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E237">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F237">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G237">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D238">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E238">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F238">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G238">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D239">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E239">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F239">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G239">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D240">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E240">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F240">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G240">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D241">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E241">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F241">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G241">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D242">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E242">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F242">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G242">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D243">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E243">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F243">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G243">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D244">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E244">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F244">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G244">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D245">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E245">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F245">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G245">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D246">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E246">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F246">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G246">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D247">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E247">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F247">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G247">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D248">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E248">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F248">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G248">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D249">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E249">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F249">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G249">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D250">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E250">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F250">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G250">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D251">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E251">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F251">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G251">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D252">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E252">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F252">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G252">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D253">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E253">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F253">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G253">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D254">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E254">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F254">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G254">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D255">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E255">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F255">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G255">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D256">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E256">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F256">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G256">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D257">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E257">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F257">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G257">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D258">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E258">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F258">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G258">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D259">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E259">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F259">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G259">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D260">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E260">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F260">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G260">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D261">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E261">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F261">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G261">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D262">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E262">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F262">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G262">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D263">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E263">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F263">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G263">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D264">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E264">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F264">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G264">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D265">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E265">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F265">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G265">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D266">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E266">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F266">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G266">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D267">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E267">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F267">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G267">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D268">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E268">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F268">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G268">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D269">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E269">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F269">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G269">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D270">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E270">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F270">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G270">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D271">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E271">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F271">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G271">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D272">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E272">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F272">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G272">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D273">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E273">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F273">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G273">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D274">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E274">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F274">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G274">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D275">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E275">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F275">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G275">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D276">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E276">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F276">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G276">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D277">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E277">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F277">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G277">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D278">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E278">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F278">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G278">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D279">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E279">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F279">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G279">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D280">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E280">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F280">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G280">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D281">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E281">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F281">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G281">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D282">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E282">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F282">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G282">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D283">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E283">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F283">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G283">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D284">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E284">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F284">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G284">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D285">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E285">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F285">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G285">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D286">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E286">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F286">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G286">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D287">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E287">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F287">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G287">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D288">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E288">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F288">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G288">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D289">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E289">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F289">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G289">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D290">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E290">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F290">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G290">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D291">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E291">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F291">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G291">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D292">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E292">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F292">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G292">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D293">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E293">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F293">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G293">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D294">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E294">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F294">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G294">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D295">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E295">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F295">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G295">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D296">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E296">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F296">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G296">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D297">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E297">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F297">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G297">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D298">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E298">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F298">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G298">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D299">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E299">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F299">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G299">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D300">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E300">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F300">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G300">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D301">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E301">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F301">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G301">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D302">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E302">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F302">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G302">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D303">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E303">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F303">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G303">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D304">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E304">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F304">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G304">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D305">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E305">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F305">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G305">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D306">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E306">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F306">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G306">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D307">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E307">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F307">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G307">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D308">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E308">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F308">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G308">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D309">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E309">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F309">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G309">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D310">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E310">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F310">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G310">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D311">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E311">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F311">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G311">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D312">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E312">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F312">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G312">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D313">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E313">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F313">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G313">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D314">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E314">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F314">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G314">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D315">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E315">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F315">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G315">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D316">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E316">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F316">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G316">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D317">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E317">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F317">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G317">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D318">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E318">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F318">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G318">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D319">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E319">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F319">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G319">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D320">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E320">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F320">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G320">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D321">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E321">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F321">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G321">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D322">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E322">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F322">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G322">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D323">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E323">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F323">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G323">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D324">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E324">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F324">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G324">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D325">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E325">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F325">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G325">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D326">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E326">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F326">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G326">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D327">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E327">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F327">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G327">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D328">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E328">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F328">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G328">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D329">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E329">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F329">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G329">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D330">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E330">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F330">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G330">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D331">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E331">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F331">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G331">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D332">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E332">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F332">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G332">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D333">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E333">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F333">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G333">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D334">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E334">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F334">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G334">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D335">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E335">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F335">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G335">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D336">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E336">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F336">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G336">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D337">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E337">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F337">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G337">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D338">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E338">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F338">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G338">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D339">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E339">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F339">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G339">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D340">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E340">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F340">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G340">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D341">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E341">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F341">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G341">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D342">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E342">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F342">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G342">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D343">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E343">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F343">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G343">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D344">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E344">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F344">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G344">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D345">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E345">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F345">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G345">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D346">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E346">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F346">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G346">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D347">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E347">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F347">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G347">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D348">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E348">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F348">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G348">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D349">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E349">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F349">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G349">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D350">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E350">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F350">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G350">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D351">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E351">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F351">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G351">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D352">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E352">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F352">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G352">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D353">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E353">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F353">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G353">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D354">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E354">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F354">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G354">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D355">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E355">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F355">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G355">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D356">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E356">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F356">
-      <formula1>0</formula1>
-      <formula2>70</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G356">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
